--- a/Excel/Mingguan/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
+++ b/Excel/Mingguan/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:E37"/>
+      <selection activeCell="D26" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
+++ b/Excel/Mingguan/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
@@ -1145,7 +1145,11 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr"/>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D30" s="9" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr"/>
     </row>
